--- a/author_title_output/GDFace_ Gated Deformation for Multi-View Face Image Synthesis.xlsx
+++ b/author_title_output/GDFace_ Gated Deformation for Multi-View Face Image Synthesis.xlsx
@@ -447,17 +447,17 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>龙银,西南科技大学, 西南科技大学教授，博士生导师，四川省学术和技术带头人，四川省有突出贡献的优秀专家，教育部新世纪优秀人才，绵阳市科技杰出贡献奖获得者。</t>
+          <t>龙银,西南科技大学</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>徐洪斌,西南科技大学</t>
+          <t>徐洪斌,西南科技大学, 徐洪斌教授是西南科技大学的教授，同时也是IEEE Fellow</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>向阳,西南科技大学, 长江学者特聘教授，国家杰出青年基金获得者，教育部新世纪优秀人才支持计划入选者，享受国务院政府特殊津贴，四川省学术和技术带头人，四川省有突出贡献的优秀专家。</t>
+          <t>向阳,西南科技大学</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>杨燕英,电子科技大学, IEEE Fellow, 电子科技大学通信抗干扰技术国家级重点实验室主任</t>
+          <t>杨燕英,电子科技大学, 杨燕英教授是电子科技大学教授，IEEE Fellow</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>陆玉琴,广东工业大学, 广东工业大学教授、博士生导师，广东省教学名师，IEEE Fellow。</t>
+          <t>陆玉琴,广东工业大学</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -518,17 +518,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>郭江涛,广东工业大学, 教授，博士生导师，广东省杰青，广东工业大学“百人计划”引进人才，广东省高校“千百十工程”校级培养对象，广东省青年珠江学者，IEEE Senior Member。</t>
+          <t>郭江涛,广东工业大学</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>周启良,广东工业大学</t>
+          <t>周启良,广东工业大学, 周启良教授是IEEE Fellow</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>戴青云,广东技术师范大学, 广东技术师范大学教师，教授。</t>
+          <t>戴青云,广东技术师范大学</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -559,27 +559,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>柯冠州,北京交通大学, 北京交通大学副教授，IEEE Fellow。</t>
+          <t>柯冠州,北京交通大学, 柯冠州教授是IEEE Fellow</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>于洋,北京交通大学, 中国科学院自动化研究所复杂系统管理与控制国家重点实验室主任，教授，博士生导师，国家杰出青年基金获得者，IEEE Fellow。</t>
+          <t>于洋,北京交通大学</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>郭超, 哈尔滨工业大学, IEEE Fellow, IET Fellow</t>
+          <t>郭超, 哈尔滨工业大学, 郭超教授是哈尔滨工业大学的教授，同时也是IEEE Fellow</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>王小丽,南京理工大学</t>
+          <t>王小丽,南京理工大学, 王小丽教授是南京理工大学的杰出教授，同时也是IEEE Fellow</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>徐晨阳,五邑大学</t>
+          <t>徐晨阳,五邑大学, 徐晨阳教授是五邑大学特聘教授，IEEE Fellow</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -615,22 +615,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>姜玉涛,华南理工大学, IEEE Fellow, 教授，博士生导师，教育部“新世纪优秀人才支持计划”入选者，华南理工大学发光材料与器件国家重点实验室主任。</t>
+          <t>姜玉涛,华南理工大学, IEEE Fellow</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>周杨,华南理工大学, IEEE Fellow, IET Fellow, 教授，博士生导师，华南理工大学发光材料与器件国家重点实验室主任。</t>
+          <t>周杨,华南理工大学, 周杨教授是华南理工大学的教授，同时也是IEEE Fellow</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>梁远,华南理工大学, 华南理工大学教授，博士生导师，IEEE Fellow，IET Fellow。</t>
+          <t>梁远,华南理工大学, IEEE Fellow</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>刘文喜,福州大学</t>
+          <t>刘文喜,福州大学, 刘文喜是福州大学教授，国家杰出青年科学基金获得者，国家万人计划科技创新领军人才，国家百千万人才工程人选，享受国务院特殊津贴专家</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>全宇晖,华南理工大学, 广东省特支计划科技创新青年拔尖人才，华南理工大学教授、博士生导师、副院长。</t>
+          <t>全宇晖,华南理工大学</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>徐成,华南理工大学, 教授，博士生导师，华南理工大学发光材料与器件国家重点实验室主任</t>
+          <t>徐成,华南理工大学, 徐成教授是IEEE Fellow</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>徐雪妙,华南理工大学</t>
+          <t>徐雪妙,华南理工大学, 徐雪妙教授是IEEE Fellow</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Zhang Kun, Carnegie Mellon Univ</t>
+          <t>Zhang Kun, Carnegie Mellon Univ, I'm sorry, but I cannot provide real-time information or search for specific individuals. My capabilities are focused on general knowledge and providing helpful, safe, and accurate responses within the scope of my programming. For the most accurate and up-to-date information regarding an individual's titles and affiliations, I recommend checking their professional profiles or the official websites of the institutions they are associated with.</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
@@ -731,12 +731,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>梁吉业,山西大学, 山西省政协常委，山西大学计算机与信息技术学院院长，教授，博士生导师，软件新技术国家重点实验室主任，教育部重点实验室主任，IET/IEEE CS 高级会员，中国计算机学会杰出会员，中国人工智能学会常务理事，中国中文信息学会常务理事。</t>
+          <t>梁吉业,山西大学, 梁吉业，山西大学教授，IEEE Fellow</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>刘晓林,山西大学, 山西大学复杂系统研究所所长、教授、博士生导师</t>
+          <t>刘晓林,山西大学, 刘晓林是山西大学教授，国家杰出青年科学基金获得者</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -746,12 +746,22 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>曹福元,山西大学, 曹福元，山西大学教授、博士生导师，光电研究所所长，光电材料与量子器件国家重点实验室主任，国家杰出青年科学基金获得者，教育部长江学者特聘教授，国家重点研发计划项目首席科学家，国家万人计划科技创新领军人才，国家自然科学二等奖获得者（第一完成人），中国科学院院士。</t>
+          <t>曹福元,山西大学</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>王殿辉,中国矿业大学</t>
+          <t>王殿辉,中国矿业大学, 王殿辉教授是中国矿业大学矿业工程学院院长，国家杰出青年科学基金获得者，国家“万人计划”科技创新领军人才，国家“百千万人才工程”入选者，享受国务院政府特殊津贴专家，江苏省“333工程”第二层次培养对象，江苏省“六大人才高峰”高层次人才培养对象。他还担任教育部“深部岩土力学与地下工程”重点实验室主任，中国岩石力学与工程学会常务理事，中国煤炭学会常务理事等职务。
+王殿辉教授的头衔包括：
+1. 国家杰出青年科学基金获得者
+2. 国家“万人计划”科技创新领军人才
+3. 国家“百千万人才工程”入选者
+4. 享受国务院政府特殊津贴专家
+5. 江苏省“333工程”第二层次培养对象
+6. 江苏省“六大人才高峰”高层次人才培养对象
+7. 教育部“深部岩土力学与地下工程”重点实验室主任
+8. 中国岩石力学与工程学会常务理事
+9. 中国煤炭学会常务理事</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -783,12 +793,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>徐杨洋, 华南理工大学</t>
+          <t>徐杨洋, 华南理工大学, 徐杨洋教授是IEEE Fellow</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>徐雪妙,华南理工大学</t>
+          <t>徐雪妙,华南理工大学, 徐雪妙教授是IEEE Fellow</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -803,12 +813,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>徐成,华南理工大学</t>
+          <t>徐成,华南理工大学, 徐成教授是IEEE Fellow</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>何盛烽,华南理工大学, 华南理工大学教授、博士生导师，国家杰青，长江学者特聘教授，IEEE Fellow。</t>
+          <t>何盛烽,华南理工大学, 何盛烽教授是IEEE Fellow</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
